--- a/VALOR/Importaciones por Lugar de Salida 2018 - Mensual - Editado.xlsx
+++ b/VALOR/Importaciones por Lugar de Salida 2018 - Mensual - Editado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aseba\Desktop\DATA Exterior\Importaciones\CIF\2018\Editado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMERCIO\VALOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67D06C7F-925E-4E51-ACDD-B0DFEEE1466E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6F0681-052F-410D-A845-59FBBB863744}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Impo Puerto Monto CIF 2018" sheetId="1" r:id="rId1"/>
@@ -364,7 +364,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -405,12 +405,108 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -436,6 +532,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -445,24 +542,424 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="1" fillId="5" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -473,6 +970,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{62DD43E1-D633-4345-84D9-33B459CCD50E}" name="imp_salida_valor_2018" displayName="imp_salida_valor_2018" ref="A1:M60" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="16" tableBorderDxfId="17" totalsRowBorderDxfId="15">
+  <autoFilter ref="A1:M60" xr:uid="{D88DCE37-CDD7-42DF-B5DD-65261A1A284C}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{26C24408-6C9A-4D41-8084-E73C2D1461E7}" name="Lugar de Ingreso (Puerto-Aeropuerto-Avanzada)" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{D8E54C2A-5276-4764-98F8-A922F3F4102A}" name="Enero - 2018" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{56CC9EE0-51FC-42A6-B822-1F31ED373A4B}" name="Febrero - 2018" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{9AE9D841-ED74-4831-9163-D7459CCC010A}" name="Marzo - 2018" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{F983028E-1279-4B8E-989C-4C484B437F6C}" name="Abril - 2018" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{F16DE113-084B-42A9-870E-B3310E23EE44}" name="Mayo - 2018" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{8F8F9D36-6318-40FA-94E2-7324662DC4F3}" name="Junio - 2018" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{7BDEDE53-FDC0-44D0-A2DE-989B13439000}" name="Julio - 2018" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{4F80C723-1DC4-438F-ACD0-B0C963B37874}" name="Agosto - 2018" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{CEBBC2A9-EDA1-45E8-805C-5D1076D0945D}" name="Septiembre - 2018" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{BA4B0D4A-362A-439B-970F-2118D52363E8}" name="Octubre - 2018" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{4E64AD13-C2AC-4118-8B0C-1FF0039D65D8}" name="Noviembre - 2018" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{8DD118AA-843F-432E-8A1A-67D77A555891}" name="Diciembre - 2018" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -768,42 +1287,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="17" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="18" t="s">
         <v>73</v>
       </c>
     </row>
@@ -847,7 +1366,7 @@
       <c r="N4" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="O4" s="17"/>
+      <c r="O4" s="18"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
@@ -3525,7 +4044,7 @@
   <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:M60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3539,2474 +4058,2477 @@
     <col min="7" max="7" width="17.109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
     <col min="9" max="9" width="17.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.44140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="19" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.88671875" style="1" customWidth="1"/>
     <col min="14" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="24" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="15">
         <v>746692498.88</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="15">
         <v>735570564.0600003</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="15">
         <v>764525896.86999989</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="15">
         <v>766299728.27000034</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="15">
         <v>812059745.0799998</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="15">
         <v>783943462</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="15">
         <v>732430558.93000066</v>
       </c>
-      <c r="I2" s="23">
+      <c r="I2" s="15">
         <v>862450760.12999976</v>
       </c>
-      <c r="J2" s="23">
+      <c r="J2" s="15">
         <v>655887158.12000012</v>
       </c>
-      <c r="K2" s="23">
+      <c r="K2" s="15">
         <v>1027545793.3699994</v>
       </c>
-      <c r="L2" s="23">
+      <c r="L2" s="15">
         <v>818940425.74999988</v>
       </c>
-      <c r="M2" s="23">
+      <c r="M2" s="20">
         <v>739848363.44000006</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="23">
-        <v>0</v>
-      </c>
-      <c r="C3" s="23">
-        <v>0</v>
-      </c>
-      <c r="D3" s="23">
+      <c r="B3" s="15">
+        <v>0</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0</v>
+      </c>
+      <c r="D3" s="15">
         <v>2118.5</v>
       </c>
-      <c r="E3" s="23">
-        <v>0</v>
-      </c>
-      <c r="F3" s="23">
-        <v>0</v>
-      </c>
-      <c r="G3" s="23">
-        <v>0</v>
-      </c>
-      <c r="H3" s="23">
-        <v>0</v>
-      </c>
-      <c r="I3" s="23">
+      <c r="E3" s="15">
+        <v>0</v>
+      </c>
+      <c r="F3" s="15">
+        <v>0</v>
+      </c>
+      <c r="G3" s="15">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15">
         <v>1267</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="15">
         <v>8674.6200000000008</v>
       </c>
-      <c r="K3" s="23">
-        <v>0</v>
-      </c>
-      <c r="L3" s="23">
-        <v>0</v>
-      </c>
-      <c r="M3" s="23">
+      <c r="K3" s="15">
+        <v>0</v>
+      </c>
+      <c r="L3" s="15">
+        <v>0</v>
+      </c>
+      <c r="M3" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="15">
         <v>115112.92</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="15">
         <v>134731.84</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="15">
         <v>263855.61</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="15">
         <v>44985.509999999995</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="15">
         <v>113800.65999999999</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="15">
         <v>621523.86</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="15">
         <v>556400.77</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="15">
         <v>595645.51</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="15">
         <v>393746.92</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="15">
         <v>520032.54999999993</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="15">
         <v>1008557.57</v>
       </c>
-      <c r="M4" s="23">
+      <c r="M4" s="20">
         <v>2283336.34</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="23">
-        <v>0</v>
-      </c>
-      <c r="C5" s="23">
+      <c r="B5" s="15">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15">
         <v>21004.58</v>
       </c>
-      <c r="D5" s="23">
-        <v>0</v>
-      </c>
-      <c r="E5" s="23">
-        <v>0</v>
-      </c>
-      <c r="F5" s="23">
-        <v>0</v>
-      </c>
-      <c r="G5" s="23">
-        <v>0</v>
-      </c>
-      <c r="H5" s="23">
-        <v>0</v>
-      </c>
-      <c r="I5" s="23">
-        <v>0</v>
-      </c>
-      <c r="J5" s="23">
-        <v>0</v>
-      </c>
-      <c r="K5" s="23">
-        <v>0</v>
-      </c>
-      <c r="L5" s="23">
-        <v>0</v>
-      </c>
-      <c r="M5" s="23">
+      <c r="D5" s="15">
+        <v>0</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0</v>
+      </c>
+      <c r="H5" s="15">
+        <v>0</v>
+      </c>
+      <c r="I5" s="15">
+        <v>0</v>
+      </c>
+      <c r="J5" s="15">
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
+        <v>0</v>
+      </c>
+      <c r="L5" s="15">
+        <v>0</v>
+      </c>
+      <c r="M5" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="15">
         <v>298.23</v>
       </c>
-      <c r="C6" s="23">
-        <v>0</v>
-      </c>
-      <c r="D6" s="23">
+      <c r="C6" s="15">
+        <v>0</v>
+      </c>
+      <c r="D6" s="15">
         <v>547467.09000000008</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="15">
         <v>7902.26</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="15">
         <v>7369.43</v>
       </c>
-      <c r="G6" s="23">
-        <v>0</v>
-      </c>
-      <c r="H6" s="23">
+      <c r="G6" s="15">
+        <v>0</v>
+      </c>
+      <c r="H6" s="15">
         <v>116337.01</v>
       </c>
-      <c r="I6" s="23">
-        <v>0</v>
-      </c>
-      <c r="J6" s="23">
+      <c r="I6" s="15">
+        <v>0</v>
+      </c>
+      <c r="J6" s="15">
         <v>144.63</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="15">
         <v>3465.85</v>
       </c>
-      <c r="L6" s="23">
-        <v>0</v>
-      </c>
-      <c r="M6" s="23">
+      <c r="L6" s="15">
+        <v>0</v>
+      </c>
+      <c r="M6" s="20">
         <v>2672.45</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="23">
-        <v>0</v>
-      </c>
-      <c r="C7" s="23">
+      <c r="B7" s="15">
+        <v>0</v>
+      </c>
+      <c r="C7" s="15">
         <v>2500.4100000000003</v>
       </c>
-      <c r="D7" s="23">
-        <v>0</v>
-      </c>
-      <c r="E7" s="23">
-        <v>0</v>
-      </c>
-      <c r="F7" s="23">
-        <v>0</v>
-      </c>
-      <c r="G7" s="23">
-        <v>0</v>
-      </c>
-      <c r="H7" s="23">
-        <v>0</v>
-      </c>
-      <c r="I7" s="23">
+      <c r="D7" s="15">
+        <v>0</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0</v>
+      </c>
+      <c r="H7" s="15">
+        <v>0</v>
+      </c>
+      <c r="I7" s="15">
         <v>14766.32</v>
       </c>
-      <c r="J7" s="23">
-        <v>0</v>
-      </c>
-      <c r="K7" s="23">
-        <v>0</v>
-      </c>
-      <c r="L7" s="23">
-        <v>0</v>
-      </c>
-      <c r="M7" s="23">
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0</v>
+      </c>
+      <c r="L7" s="15">
+        <v>0</v>
+      </c>
+      <c r="M7" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="15">
         <v>48150.7</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="15">
         <v>2781.08</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="15">
         <v>4266.1899999999996</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="15">
         <v>4305</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="15">
         <v>5472</v>
       </c>
-      <c r="G8" s="23">
-        <v>0</v>
-      </c>
-      <c r="H8" s="23">
+      <c r="G8" s="15">
+        <v>0</v>
+      </c>
+      <c r="H8" s="15">
         <v>1183.28</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="15">
         <v>27977.72</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="15">
         <v>83876.22</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="15">
         <v>65113.27</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="15">
         <v>13724.86</v>
       </c>
-      <c r="M8" s="23">
+      <c r="M8" s="20">
         <v>2307.9499999999998</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="15">
         <v>60318553.370000005</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="15">
         <v>41464377.18</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="15">
         <v>37891874.43</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="15">
         <v>59957784.530000001</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="15">
         <v>79188073.990000024</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="15">
         <v>67559096.99000001</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="15">
         <v>64407141.980000004</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="15">
         <v>72518114.249999985</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="15">
         <v>65299128.709999979</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="15">
         <v>88260440.219999999</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="15">
         <v>71978094.269999996</v>
       </c>
-      <c r="M9" s="23">
+      <c r="M9" s="20">
         <v>105997947.17000002</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="15">
         <v>12170845.989999996</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="15">
         <v>13382138.66</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="15">
         <v>13267854.199999997</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="15">
         <v>15254199.300000001</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="15">
         <v>18403129.149999999</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="15">
         <v>19462346.82</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="15">
         <v>21186141.09</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="15">
         <v>15898277.769999998</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="15">
         <v>15309033.030000001</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="15">
         <v>20819380.229999997</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="15">
         <v>16641432.940000001</v>
       </c>
-      <c r="M10" s="23">
+      <c r="M10" s="20">
         <v>23429002.179999996</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="23">
-        <v>0</v>
-      </c>
-      <c r="C11" s="23">
-        <v>0</v>
-      </c>
-      <c r="D11" s="23">
-        <v>0</v>
-      </c>
-      <c r="E11" s="23">
-        <v>0</v>
-      </c>
-      <c r="F11" s="23">
+      <c r="B11" s="15">
+        <v>0</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0</v>
+      </c>
+      <c r="D11" s="15">
+        <v>0</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0</v>
+      </c>
+      <c r="F11" s="15">
         <v>8270</v>
       </c>
-      <c r="G11" s="23">
-        <v>0</v>
-      </c>
-      <c r="H11" s="23">
-        <v>0</v>
-      </c>
-      <c r="I11" s="23">
-        <v>0</v>
-      </c>
-      <c r="J11" s="23">
-        <v>0</v>
-      </c>
-      <c r="K11" s="23">
-        <v>0</v>
-      </c>
-      <c r="L11" s="23">
-        <v>0</v>
-      </c>
-      <c r="M11" s="23">
+      <c r="G11" s="15">
+        <v>0</v>
+      </c>
+      <c r="H11" s="15">
+        <v>0</v>
+      </c>
+      <c r="I11" s="15">
+        <v>0</v>
+      </c>
+      <c r="J11" s="15">
+        <v>0</v>
+      </c>
+      <c r="K11" s="15">
+        <v>0</v>
+      </c>
+      <c r="L11" s="15">
+        <v>0</v>
+      </c>
+      <c r="M11" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="15">
         <v>5733947.9500000002</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="15">
         <v>6242596.1500000004</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="15">
         <v>7426329.8499999996</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="15">
         <v>7004512.9400000004</v>
       </c>
-      <c r="F12" s="23">
-        <v>0</v>
-      </c>
-      <c r="G12" s="23">
+      <c r="F12" s="15">
+        <v>0</v>
+      </c>
+      <c r="G12" s="15">
         <v>837095.96</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="15">
         <v>477266.66</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="15">
         <v>10792</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="15">
         <v>10521390.17</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="15">
         <v>3425193.63</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L12" s="15">
         <v>8284314.5800000001</v>
       </c>
-      <c r="M12" s="23">
+      <c r="M12" s="20">
         <v>7878475.3899999997</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="15">
         <v>14925907.42</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="15">
         <v>17820431.760000002</v>
       </c>
-      <c r="D13" s="23">
-        <v>0</v>
-      </c>
-      <c r="E13" s="23">
-        <v>0</v>
-      </c>
-      <c r="F13" s="23">
+      <c r="D13" s="15">
+        <v>0</v>
+      </c>
+      <c r="E13" s="15">
+        <v>0</v>
+      </c>
+      <c r="F13" s="15">
         <v>14640742.77</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="15">
         <v>21891034.149999999</v>
       </c>
-      <c r="H13" s="23">
-        <v>0</v>
-      </c>
-      <c r="I13" s="23">
+      <c r="H13" s="15">
+        <v>0</v>
+      </c>
+      <c r="I13" s="15">
         <v>2273039.23</v>
       </c>
-      <c r="J13" s="23">
-        <v>0</v>
-      </c>
-      <c r="K13" s="23">
+      <c r="J13" s="15">
+        <v>0</v>
+      </c>
+      <c r="K13" s="15">
         <v>13691917.380000001</v>
       </c>
-      <c r="L13" s="23">
+      <c r="L13" s="15">
         <v>2272940.84</v>
       </c>
-      <c r="M13" s="23">
+      <c r="M13" s="20">
         <v>14969963.619999999</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="15">
         <v>23378943.219999999</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="15">
         <v>10173060.43</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="15">
         <v>21821169.469999999</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="15">
         <v>12810621.1</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="15">
         <v>25118067.149999999</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="15">
         <v>17424114.829999998</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="15">
         <v>24920685.449999999</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="15">
         <v>23336594.77</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="15">
         <v>21303195.550000001</v>
       </c>
-      <c r="K14" s="23">
+      <c r="K14" s="15">
         <v>29469879.079999998</v>
       </c>
-      <c r="L14" s="23">
+      <c r="L14" s="15">
         <v>17884676.059999999</v>
       </c>
-      <c r="M14" s="23">
+      <c r="M14" s="20">
         <v>17510431.350000001</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="15">
         <v>2936800.5999999996</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="15">
         <v>1729427.9300000002</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="15">
         <v>2053640.45</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="15">
         <v>2330694.4500000002</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="15">
         <v>2935285.04</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="15">
         <v>3399338.67</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="15">
         <v>3899336.0799999996</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="15">
         <v>4825225.0399999991</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="15">
         <v>3645345.78</v>
       </c>
-      <c r="K15" s="23">
+      <c r="K15" s="15">
         <v>2930533.6</v>
       </c>
-      <c r="L15" s="23">
+      <c r="L15" s="15">
         <v>2922492.49</v>
       </c>
-      <c r="M15" s="23">
+      <c r="M15" s="20">
         <v>2740890.07</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="23">
-        <v>0</v>
-      </c>
-      <c r="C16" s="23">
-        <v>0</v>
-      </c>
-      <c r="D16" s="23">
-        <v>0</v>
-      </c>
-      <c r="E16" s="23">
-        <v>0</v>
-      </c>
-      <c r="F16" s="23">
+      <c r="B16" s="15">
+        <v>0</v>
+      </c>
+      <c r="C16" s="15">
+        <v>0</v>
+      </c>
+      <c r="D16" s="15">
+        <v>0</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0</v>
+      </c>
+      <c r="F16" s="15">
         <v>1932.71</v>
       </c>
-      <c r="G16" s="23">
-        <v>0</v>
-      </c>
-      <c r="H16" s="23">
-        <v>0</v>
-      </c>
-      <c r="I16" s="23">
-        <v>0</v>
-      </c>
-      <c r="J16" s="23">
-        <v>0</v>
-      </c>
-      <c r="K16" s="23">
+      <c r="G16" s="15">
+        <v>0</v>
+      </c>
+      <c r="H16" s="15">
+        <v>0</v>
+      </c>
+      <c r="I16" s="15">
+        <v>0</v>
+      </c>
+      <c r="J16" s="15">
+        <v>0</v>
+      </c>
+      <c r="K16" s="15">
         <v>101885.8</v>
       </c>
-      <c r="L16" s="23">
-        <v>0</v>
-      </c>
-      <c r="M16" s="23">
+      <c r="L16" s="15">
+        <v>0</v>
+      </c>
+      <c r="M16" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="15">
         <v>7652348.1600000001</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="15">
         <v>3005743.01</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="15">
         <v>6294731.4099999992</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="15">
         <v>3244576.71</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="15">
         <v>3829706.8200000003</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="15">
         <v>1470025.5</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="15">
         <v>3980571.49</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="15">
         <v>4105820.04</v>
       </c>
-      <c r="J17" s="23">
+      <c r="J17" s="15">
         <v>3489763.02</v>
       </c>
-      <c r="K17" s="23">
+      <c r="K17" s="15">
         <v>3747563.4799999995</v>
       </c>
-      <c r="L17" s="23">
+      <c r="L17" s="15">
         <v>5523651.0700000003</v>
       </c>
-      <c r="M17" s="23">
+      <c r="M17" s="20">
         <v>3978347.27</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="15">
         <v>231778.51</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="15">
         <v>241900.16999999998</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="15">
         <v>205498.11</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="15">
         <v>167070.19</v>
       </c>
-      <c r="F18" s="23">
-        <v>0</v>
-      </c>
-      <c r="G18" s="23">
+      <c r="F18" s="15">
+        <v>0</v>
+      </c>
+      <c r="G18" s="15">
         <v>22007.68</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="15">
         <v>52257.13</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="15">
         <v>52257.13</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J18" s="15">
         <v>347021.77</v>
       </c>
-      <c r="K18" s="23">
+      <c r="K18" s="15">
         <v>273279.57</v>
       </c>
-      <c r="L18" s="23">
+      <c r="L18" s="15">
         <v>688476.61</v>
       </c>
-      <c r="M18" s="23">
+      <c r="M18" s="20">
         <v>1000780.01</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="23">
-        <v>0</v>
-      </c>
-      <c r="C19" s="23">
-        <v>0</v>
-      </c>
-      <c r="D19" s="23">
+      <c r="B19" s="15">
+        <v>0</v>
+      </c>
+      <c r="C19" s="15">
+        <v>0</v>
+      </c>
+      <c r="D19" s="15">
         <v>258293.43</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="15">
         <v>46755.040000000001</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="15">
         <v>620260.92000000004</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="15">
         <v>115387.46</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="15">
         <v>267009.33999999997</v>
       </c>
-      <c r="I19" s="23">
-        <v>0</v>
-      </c>
-      <c r="J19" s="23">
+      <c r="I19" s="15">
+        <v>0</v>
+      </c>
+      <c r="J19" s="15">
         <v>832670</v>
       </c>
-      <c r="K19" s="23">
-        <v>0</v>
-      </c>
-      <c r="L19" s="23">
-        <v>0</v>
-      </c>
-      <c r="M19" s="23">
+      <c r="K19" s="15">
+        <v>0</v>
+      </c>
+      <c r="L19" s="15">
+        <v>0</v>
+      </c>
+      <c r="M19" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="15">
         <v>1057582.7</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="15">
         <v>1012851.18</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="15">
         <v>1461330.09</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="15">
         <v>1000202.2999999999</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="15">
         <v>2523738.16</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="15">
         <v>2245375.5699999998</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="15">
         <v>4447740.63</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="15">
         <v>942038.02</v>
       </c>
-      <c r="J20" s="23">
+      <c r="J20" s="15">
         <v>1294285.5</v>
       </c>
-      <c r="K20" s="23">
+      <c r="K20" s="15">
         <v>3458463.85</v>
       </c>
-      <c r="L20" s="23">
+      <c r="L20" s="15">
         <v>1809701.68</v>
       </c>
-      <c r="M20" s="23">
+      <c r="M20" s="20">
         <v>1570112.31</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="15">
         <v>4466427.3899999997</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="15">
         <v>9790958.6600000001</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="15">
         <v>625104.43999999994</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="15">
         <v>2407448.4700000002</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="15">
         <v>548513.5</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="15">
         <v>2576482.9500000002</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="15">
         <v>4276.51</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="15">
         <v>1833413.47</v>
       </c>
-      <c r="J21" s="23">
+      <c r="J21" s="15">
         <v>1503215.99</v>
       </c>
-      <c r="K21" s="23">
+      <c r="K21" s="15">
         <v>506519.38999999996</v>
       </c>
-      <c r="L21" s="23">
+      <c r="L21" s="15">
         <v>4046884.8200000003</v>
       </c>
-      <c r="M21" s="23">
+      <c r="M21" s="20">
         <v>2358623.8200000003</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="15">
         <v>94651787.940000013</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="15">
         <v>69089754.879999995</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="15">
         <v>84744422.090000004</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="15">
         <v>102749629.92000002</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="15">
         <v>83293821.859999985</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="15">
         <v>83726010.500000015</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="15">
         <v>78931616.980000019</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="15">
         <v>97009368.659999967</v>
       </c>
-      <c r="J22" s="23">
+      <c r="J22" s="15">
         <v>71461561.589999974</v>
       </c>
-      <c r="K22" s="23">
+      <c r="K22" s="15">
         <v>102187304.45</v>
       </c>
-      <c r="L22" s="23">
+      <c r="L22" s="15">
         <v>92047707.270000011</v>
       </c>
-      <c r="M22" s="23">
+      <c r="M22" s="20">
         <v>78429700.570000008</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="23">
-        <v>0</v>
-      </c>
-      <c r="C23" s="23">
-        <v>0</v>
-      </c>
-      <c r="D23" s="23">
+      <c r="B23" s="15">
+        <v>0</v>
+      </c>
+      <c r="C23" s="15">
+        <v>0</v>
+      </c>
+      <c r="D23" s="15">
         <v>238970.17</v>
       </c>
-      <c r="E23" s="23">
-        <v>0</v>
-      </c>
-      <c r="F23" s="23">
-        <v>0</v>
-      </c>
-      <c r="G23" s="23">
+      <c r="E23" s="15">
+        <v>0</v>
+      </c>
+      <c r="F23" s="15">
+        <v>0</v>
+      </c>
+      <c r="G23" s="15">
         <v>1526872</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="15">
         <v>1971477.37</v>
       </c>
-      <c r="I23" s="23">
-        <v>0</v>
-      </c>
-      <c r="J23" s="23">
-        <v>0</v>
-      </c>
-      <c r="K23" s="23">
-        <v>0</v>
-      </c>
-      <c r="L23" s="23">
-        <v>0</v>
-      </c>
-      <c r="M23" s="23">
+      <c r="I23" s="15">
+        <v>0</v>
+      </c>
+      <c r="J23" s="15">
+        <v>0</v>
+      </c>
+      <c r="K23" s="15">
+        <v>0</v>
+      </c>
+      <c r="L23" s="15">
+        <v>0</v>
+      </c>
+      <c r="M23" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24" s="15">
         <v>4609620.6999999993</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="15">
         <v>3536519.6099999994</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="15">
         <v>4170995.9800000004</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="15">
         <v>3802141.51</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="15">
         <v>4374290.3699999992</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="15">
         <v>7097470.7600000016</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="15">
         <v>3505470.3499999996</v>
       </c>
-      <c r="I24" s="23">
+      <c r="I24" s="15">
         <v>4772377.1099999994</v>
       </c>
-      <c r="J24" s="23">
+      <c r="J24" s="15">
         <v>4341346.34</v>
       </c>
-      <c r="K24" s="23">
+      <c r="K24" s="15">
         <v>6997952.5600000005</v>
       </c>
-      <c r="L24" s="23">
+      <c r="L24" s="15">
         <v>4440813.1399999997</v>
       </c>
-      <c r="M24" s="23">
+      <c r="M24" s="20">
         <v>10061370.999999998</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="15">
         <v>167400</v>
       </c>
-      <c r="C25" s="23">
-        <v>0</v>
-      </c>
-      <c r="D25" s="23">
-        <v>0</v>
-      </c>
-      <c r="E25" s="23">
-        <v>0</v>
-      </c>
-      <c r="F25" s="23">
-        <v>0</v>
-      </c>
-      <c r="G25" s="23">
-        <v>0</v>
-      </c>
-      <c r="H25" s="23">
-        <v>0</v>
-      </c>
-      <c r="I25" s="23">
-        <v>0</v>
-      </c>
-      <c r="J25" s="23">
-        <v>0</v>
-      </c>
-      <c r="K25" s="23">
-        <v>0</v>
-      </c>
-      <c r="L25" s="23">
-        <v>0</v>
-      </c>
-      <c r="M25" s="23">
+      <c r="C25" s="15">
+        <v>0</v>
+      </c>
+      <c r="D25" s="15">
+        <v>0</v>
+      </c>
+      <c r="E25" s="15">
+        <v>0</v>
+      </c>
+      <c r="F25" s="15">
+        <v>0</v>
+      </c>
+      <c r="G25" s="15">
+        <v>0</v>
+      </c>
+      <c r="H25" s="15">
+        <v>0</v>
+      </c>
+      <c r="I25" s="15">
+        <v>0</v>
+      </c>
+      <c r="J25" s="15">
+        <v>0</v>
+      </c>
+      <c r="K25" s="15">
+        <v>0</v>
+      </c>
+      <c r="L25" s="15">
+        <v>0</v>
+      </c>
+      <c r="M25" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="15">
         <v>17909.43</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="15">
         <v>26989.1</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="15">
         <v>967174.31</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="15">
         <v>1258619.93</v>
       </c>
-      <c r="F26" s="23">
-        <v>0</v>
-      </c>
-      <c r="G26" s="23">
-        <v>0</v>
-      </c>
-      <c r="H26" s="23">
+      <c r="F26" s="15">
+        <v>0</v>
+      </c>
+      <c r="G26" s="15">
+        <v>0</v>
+      </c>
+      <c r="H26" s="15">
         <v>14715.13</v>
       </c>
-      <c r="I26" s="23">
+      <c r="I26" s="15">
         <v>1460128.51</v>
       </c>
-      <c r="J26" s="23">
+      <c r="J26" s="15">
         <v>2667944.59</v>
       </c>
-      <c r="K26" s="23">
+      <c r="K26" s="15">
         <v>2963425.96</v>
       </c>
-      <c r="L26" s="23">
+      <c r="L26" s="15">
         <v>2667519.9700000002</v>
       </c>
-      <c r="M26" s="23">
+      <c r="M26" s="20">
         <v>2986187.37</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="23">
+      <c r="B27" s="15">
         <v>4676803.09</v>
       </c>
-      <c r="C27" s="23">
-        <v>0</v>
-      </c>
-      <c r="D27" s="23">
+      <c r="C27" s="15">
+        <v>0</v>
+      </c>
+      <c r="D27" s="15">
         <v>1749523.31</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="15">
         <v>6687802.9900000002</v>
       </c>
-      <c r="F27" s="23">
+      <c r="F27" s="15">
         <v>3230641.27</v>
       </c>
-      <c r="G27" s="23">
+      <c r="G27" s="15">
         <v>2936299.29</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="15">
         <v>2809857.41</v>
       </c>
-      <c r="I27" s="23">
+      <c r="I27" s="15">
         <v>2054092.88</v>
       </c>
-      <c r="J27" s="23">
+      <c r="J27" s="15">
         <v>5886584.1399999997</v>
       </c>
-      <c r="K27" s="23">
-        <v>0</v>
-      </c>
-      <c r="L27" s="23">
+      <c r="K27" s="15">
+        <v>0</v>
+      </c>
+      <c r="L27" s="15">
         <v>5274568.4000000004</v>
       </c>
-      <c r="M27" s="23">
+      <c r="M27" s="20">
         <v>1656749.23</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="23">
-        <v>0</v>
-      </c>
-      <c r="C28" s="23">
-        <v>0</v>
-      </c>
-      <c r="D28" s="23">
-        <v>0</v>
-      </c>
-      <c r="E28" s="23">
-        <v>0</v>
-      </c>
-      <c r="F28" s="23">
-        <v>0</v>
-      </c>
-      <c r="G28" s="23">
-        <v>0</v>
-      </c>
-      <c r="H28" s="23">
+      <c r="B28" s="15">
+        <v>0</v>
+      </c>
+      <c r="C28" s="15">
+        <v>0</v>
+      </c>
+      <c r="D28" s="15">
+        <v>0</v>
+      </c>
+      <c r="E28" s="15">
+        <v>0</v>
+      </c>
+      <c r="F28" s="15">
+        <v>0</v>
+      </c>
+      <c r="G28" s="15">
+        <v>0</v>
+      </c>
+      <c r="H28" s="15">
         <v>17260.650000000001</v>
       </c>
-      <c r="I28" s="23">
-        <v>0</v>
-      </c>
-      <c r="J28" s="23">
-        <v>0</v>
-      </c>
-      <c r="K28" s="23">
-        <v>0</v>
-      </c>
-      <c r="L28" s="23">
-        <v>0</v>
-      </c>
-      <c r="M28" s="23">
+      <c r="I28" s="15">
+        <v>0</v>
+      </c>
+      <c r="J28" s="15">
+        <v>0</v>
+      </c>
+      <c r="K28" s="15">
+        <v>0</v>
+      </c>
+      <c r="L28" s="15">
+        <v>0</v>
+      </c>
+      <c r="M28" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="15">
         <v>5372175.75</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="15">
         <v>10104877.309999999</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="15">
         <v>25775494.52</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="15">
         <v>4918129.0599999996</v>
       </c>
-      <c r="F29" s="23">
+      <c r="F29" s="15">
         <v>69627166.049999997</v>
       </c>
-      <c r="G29" s="23">
+      <c r="G29" s="15">
         <v>18178316.949999999</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H29" s="15">
         <v>4915629.42</v>
       </c>
-      <c r="I29" s="23">
+      <c r="I29" s="15">
         <v>12246510.640000001</v>
       </c>
-      <c r="J29" s="23">
+      <c r="J29" s="15">
         <v>24391460.800000001</v>
       </c>
-      <c r="K29" s="23">
+      <c r="K29" s="15">
         <v>21444952.52</v>
       </c>
-      <c r="L29" s="23">
+      <c r="L29" s="15">
         <v>34120350.559999995</v>
       </c>
-      <c r="M29" s="23">
+      <c r="M29" s="20">
         <v>6536139.2700000005</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="23">
+      <c r="B30" s="15">
         <v>65646.03</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="15">
         <v>33812.31</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="15">
         <v>37632.699999999997</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="15">
         <v>30148.97</v>
       </c>
-      <c r="F30" s="23">
+      <c r="F30" s="15">
         <v>4060.32</v>
       </c>
-      <c r="G30" s="23">
-        <v>0</v>
-      </c>
-      <c r="H30" s="23">
+      <c r="G30" s="15">
+        <v>0</v>
+      </c>
+      <c r="H30" s="15">
         <v>113515.5</v>
       </c>
-      <c r="I30" s="23">
+      <c r="I30" s="15">
         <v>121822.49</v>
       </c>
-      <c r="J30" s="23">
+      <c r="J30" s="15">
         <v>93005.74</v>
       </c>
-      <c r="K30" s="23">
+      <c r="K30" s="15">
         <v>220651.23</v>
       </c>
-      <c r="L30" s="23">
+      <c r="L30" s="15">
         <v>252415.5</v>
       </c>
-      <c r="M30" s="23">
+      <c r="M30" s="20">
         <v>196172.29</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="23">
+      <c r="B31" s="15">
         <v>35542536.110000007</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="15">
         <v>56993900.68999999</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D31" s="15">
         <v>47793385.949999988</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E31" s="15">
         <v>62410959.44000002</v>
       </c>
-      <c r="F31" s="23">
+      <c r="F31" s="15">
         <v>51741459.149999999</v>
       </c>
-      <c r="G31" s="23">
+      <c r="G31" s="15">
         <v>29725192.149999995</v>
       </c>
-      <c r="H31" s="23">
+      <c r="H31" s="15">
         <v>24567980.969999999</v>
       </c>
-      <c r="I31" s="23">
+      <c r="I31" s="15">
         <v>28932151.029999994</v>
       </c>
-      <c r="J31" s="23">
+      <c r="J31" s="15">
         <v>25503007.84</v>
       </c>
-      <c r="K31" s="23">
+      <c r="K31" s="15">
         <v>51264717.560000002</v>
       </c>
-      <c r="L31" s="23">
+      <c r="L31" s="15">
         <v>43289810.479999997</v>
       </c>
-      <c r="M31" s="23">
+      <c r="M31" s="20">
         <v>39503860.159999982</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="23">
+      <c r="B32" s="15">
         <v>25199.4</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C32" s="15">
         <v>36070.949999999997</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="15">
         <v>41196.01</v>
       </c>
-      <c r="E32" s="23">
+      <c r="E32" s="15">
         <v>29818.73</v>
       </c>
-      <c r="F32" s="23">
+      <c r="F32" s="15">
         <v>8480.8700000000008</v>
       </c>
-      <c r="G32" s="23">
+      <c r="G32" s="15">
         <v>59530.61</v>
       </c>
-      <c r="H32" s="23">
-        <v>0</v>
-      </c>
-      <c r="I32" s="23">
+      <c r="H32" s="15">
+        <v>0</v>
+      </c>
+      <c r="I32" s="15">
         <v>6018.9299999999994</v>
       </c>
-      <c r="J32" s="23">
+      <c r="J32" s="15">
         <v>20606.8</v>
       </c>
-      <c r="K32" s="23">
+      <c r="K32" s="15">
         <v>52336.77</v>
       </c>
-      <c r="L32" s="23">
+      <c r="L32" s="15">
         <v>22293.79</v>
       </c>
-      <c r="M32" s="23">
+      <c r="M32" s="20">
         <v>41330.5</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="23">
+      <c r="B33" s="15">
         <v>32673907.680000003</v>
       </c>
-      <c r="C33" s="23">
+      <c r="C33" s="15">
         <v>48034994.260000005</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D33" s="15">
         <v>29480637.329999994</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33" s="15">
         <v>41620534.950000003</v>
       </c>
-      <c r="F33" s="23">
+      <c r="F33" s="15">
         <v>73200718.220000014</v>
       </c>
-      <c r="G33" s="23">
+      <c r="G33" s="15">
         <v>70626645.560000002</v>
       </c>
-      <c r="H33" s="23">
+      <c r="H33" s="15">
         <v>76186104.920000002</v>
       </c>
-      <c r="I33" s="23">
+      <c r="I33" s="15">
         <v>44682567.81000001</v>
       </c>
-      <c r="J33" s="23">
+      <c r="J33" s="15">
         <v>52203555.079999998</v>
       </c>
-      <c r="K33" s="23">
+      <c r="K33" s="15">
         <v>58997180.709999993</v>
       </c>
-      <c r="L33" s="23">
+      <c r="L33" s="15">
         <v>53954560.109999992</v>
       </c>
-      <c r="M33" s="23">
+      <c r="M33" s="20">
         <v>76804605.780000046</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="23">
-        <v>0</v>
-      </c>
-      <c r="C34" s="23">
-        <v>0</v>
-      </c>
-      <c r="D34" s="23">
-        <v>0</v>
-      </c>
-      <c r="E34" s="23">
-        <v>0</v>
-      </c>
-      <c r="F34" s="23">
-        <v>0</v>
-      </c>
-      <c r="G34" s="23">
-        <v>0</v>
-      </c>
-      <c r="H34" s="23">
-        <v>0</v>
-      </c>
-      <c r="I34" s="23">
-        <v>0</v>
-      </c>
-      <c r="J34" s="23">
-        <v>0</v>
-      </c>
-      <c r="K34" s="23">
-        <v>0</v>
-      </c>
-      <c r="L34" s="23">
+      <c r="B34" s="15">
+        <v>0</v>
+      </c>
+      <c r="C34" s="15">
+        <v>0</v>
+      </c>
+      <c r="D34" s="15">
+        <v>0</v>
+      </c>
+      <c r="E34" s="15">
+        <v>0</v>
+      </c>
+      <c r="F34" s="15">
+        <v>0</v>
+      </c>
+      <c r="G34" s="15">
+        <v>0</v>
+      </c>
+      <c r="H34" s="15">
+        <v>0</v>
+      </c>
+      <c r="I34" s="15">
+        <v>0</v>
+      </c>
+      <c r="J34" s="15">
+        <v>0</v>
+      </c>
+      <c r="K34" s="15">
+        <v>0</v>
+      </c>
+      <c r="L34" s="15">
         <v>2194.2399999999998</v>
       </c>
-      <c r="M34" s="23">
+      <c r="M34" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="23">
+      <c r="B35" s="15">
         <v>106080093.96999998</v>
       </c>
-      <c r="C35" s="23">
+      <c r="C35" s="15">
         <v>114873895.48</v>
       </c>
-      <c r="D35" s="23">
+      <c r="D35" s="15">
         <v>144656712.41999999</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E35" s="15">
         <v>154689311.63999999</v>
       </c>
-      <c r="F35" s="23">
+      <c r="F35" s="15">
         <v>172091014.35999998</v>
       </c>
-      <c r="G35" s="23">
+      <c r="G35" s="15">
         <v>173856452.31</v>
       </c>
-      <c r="H35" s="23">
+      <c r="H35" s="15">
         <v>164954338.88000003</v>
       </c>
-      <c r="I35" s="23">
+      <c r="I35" s="15">
         <v>278419623.22000003</v>
       </c>
-      <c r="J35" s="23">
+      <c r="J35" s="15">
         <v>195875843.99000004</v>
       </c>
-      <c r="K35" s="23">
+      <c r="K35" s="15">
         <v>195383565.60000002</v>
       </c>
-      <c r="L35" s="23">
+      <c r="L35" s="15">
         <v>166049201.84</v>
       </c>
-      <c r="M35" s="23">
+      <c r="M35" s="20">
         <v>117247228.63</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="23">
-        <v>0</v>
-      </c>
-      <c r="C36" s="23">
-        <v>0</v>
-      </c>
-      <c r="D36" s="23">
+      <c r="B36" s="15">
+        <v>0</v>
+      </c>
+      <c r="C36" s="15">
+        <v>0</v>
+      </c>
+      <c r="D36" s="15">
         <v>119630.09</v>
       </c>
-      <c r="E36" s="23">
-        <v>0</v>
-      </c>
-      <c r="F36" s="23">
-        <v>0</v>
-      </c>
-      <c r="G36" s="23">
-        <v>0</v>
-      </c>
-      <c r="H36" s="23">
-        <v>0</v>
-      </c>
-      <c r="I36" s="23">
-        <v>0</v>
-      </c>
-      <c r="J36" s="23">
-        <v>0</v>
-      </c>
-      <c r="K36" s="23">
-        <v>0</v>
-      </c>
-      <c r="L36" s="23">
-        <v>0</v>
-      </c>
-      <c r="M36" s="23">
+      <c r="E36" s="15">
+        <v>0</v>
+      </c>
+      <c r="F36" s="15">
+        <v>0</v>
+      </c>
+      <c r="G36" s="15">
+        <v>0</v>
+      </c>
+      <c r="H36" s="15">
+        <v>0</v>
+      </c>
+      <c r="I36" s="15">
+        <v>0</v>
+      </c>
+      <c r="J36" s="15">
+        <v>0</v>
+      </c>
+      <c r="K36" s="15">
+        <v>0</v>
+      </c>
+      <c r="L36" s="15">
+        <v>0</v>
+      </c>
+      <c r="M36" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="23">
-        <v>0</v>
-      </c>
-      <c r="C37" s="23">
+      <c r="B37" s="15">
+        <v>0</v>
+      </c>
+      <c r="C37" s="15">
         <v>13966</v>
       </c>
-      <c r="D37" s="23">
-        <v>0</v>
-      </c>
-      <c r="E37" s="23">
-        <v>0</v>
-      </c>
-      <c r="F37" s="23">
-        <v>0</v>
-      </c>
-      <c r="G37" s="23">
-        <v>0</v>
-      </c>
-      <c r="H37" s="23">
-        <v>0</v>
-      </c>
-      <c r="I37" s="23">
+      <c r="D37" s="15">
+        <v>0</v>
+      </c>
+      <c r="E37" s="15">
+        <v>0</v>
+      </c>
+      <c r="F37" s="15">
+        <v>0</v>
+      </c>
+      <c r="G37" s="15">
+        <v>0</v>
+      </c>
+      <c r="H37" s="15">
+        <v>0</v>
+      </c>
+      <c r="I37" s="15">
         <v>15408.64</v>
       </c>
-      <c r="J37" s="23">
-        <v>0</v>
-      </c>
-      <c r="K37" s="23">
+      <c r="J37" s="15">
+        <v>0</v>
+      </c>
+      <c r="K37" s="15">
         <v>264072.52</v>
       </c>
-      <c r="L37" s="23">
+      <c r="L37" s="15">
         <v>62699.41</v>
       </c>
-      <c r="M37" s="23">
+      <c r="M37" s="20">
         <v>29246.73</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="23">
-        <v>0</v>
-      </c>
-      <c r="C38" s="23">
-        <v>0</v>
-      </c>
-      <c r="D38" s="23">
-        <v>0</v>
-      </c>
-      <c r="E38" s="23">
+      <c r="B38" s="15">
+        <v>0</v>
+      </c>
+      <c r="C38" s="15">
+        <v>0</v>
+      </c>
+      <c r="D38" s="15">
+        <v>0</v>
+      </c>
+      <c r="E38" s="15">
         <v>100134.95</v>
       </c>
-      <c r="F38" s="23">
-        <v>0</v>
-      </c>
-      <c r="G38" s="23">
-        <v>0</v>
-      </c>
-      <c r="H38" s="23">
-        <v>0</v>
-      </c>
-      <c r="I38" s="23">
-        <v>0</v>
-      </c>
-      <c r="J38" s="23">
-        <v>0</v>
-      </c>
-      <c r="K38" s="23">
-        <v>0</v>
-      </c>
-      <c r="L38" s="23">
-        <v>0</v>
-      </c>
-      <c r="M38" s="23">
+      <c r="F38" s="15">
+        <v>0</v>
+      </c>
+      <c r="G38" s="15">
+        <v>0</v>
+      </c>
+      <c r="H38" s="15">
+        <v>0</v>
+      </c>
+      <c r="I38" s="15">
+        <v>0</v>
+      </c>
+      <c r="J38" s="15">
+        <v>0</v>
+      </c>
+      <c r="K38" s="15">
+        <v>0</v>
+      </c>
+      <c r="L38" s="15">
+        <v>0</v>
+      </c>
+      <c r="M38" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="23">
+      <c r="B39" s="15">
         <v>2751891.9</v>
       </c>
-      <c r="C39" s="23">
+      <c r="C39" s="15">
         <v>1209295.24</v>
       </c>
-      <c r="D39" s="23">
+      <c r="D39" s="15">
         <v>3638312.28</v>
       </c>
-      <c r="E39" s="23">
+      <c r="E39" s="15">
         <v>2454266.29</v>
       </c>
-      <c r="F39" s="23">
+      <c r="F39" s="15">
         <v>2727488.51</v>
       </c>
-      <c r="G39" s="23">
+      <c r="G39" s="15">
         <v>2545028.14</v>
       </c>
-      <c r="H39" s="23">
+      <c r="H39" s="15">
         <v>2369977.2599999998</v>
       </c>
-      <c r="I39" s="23">
+      <c r="I39" s="15">
         <v>2109220.33</v>
       </c>
-      <c r="J39" s="23">
+      <c r="J39" s="15">
         <v>2171855.36</v>
       </c>
-      <c r="K39" s="23">
-        <v>0</v>
-      </c>
-      <c r="L39" s="23">
+      <c r="K39" s="15">
+        <v>0</v>
+      </c>
+      <c r="L39" s="15">
         <v>1530275.62</v>
       </c>
-      <c r="M39" s="23">
+      <c r="M39" s="20">
         <v>2137460.59</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="23">
+      <c r="B40" s="15">
         <v>3019549.1300000004</v>
       </c>
-      <c r="C40" s="23">
+      <c r="C40" s="15">
         <v>3534930.6300000004</v>
       </c>
-      <c r="D40" s="23">
+      <c r="D40" s="15">
         <v>3978428.1900000004</v>
       </c>
-      <c r="E40" s="23">
+      <c r="E40" s="15">
         <v>5173737.370000001</v>
       </c>
-      <c r="F40" s="23">
+      <c r="F40" s="15">
         <v>7788078.7199999997</v>
       </c>
-      <c r="G40" s="23">
+      <c r="G40" s="15">
         <v>3750744.4599999995</v>
       </c>
-      <c r="H40" s="23">
+      <c r="H40" s="15">
         <v>4696746.13</v>
       </c>
-      <c r="I40" s="23">
+      <c r="I40" s="15">
         <v>5650556.6300000008</v>
       </c>
-      <c r="J40" s="23">
+      <c r="J40" s="15">
         <v>6165099.1000000006</v>
       </c>
-      <c r="K40" s="23">
+      <c r="K40" s="15">
         <v>7407983.9499999993</v>
       </c>
-      <c r="L40" s="23">
+      <c r="L40" s="15">
         <v>7591723.7000000002</v>
       </c>
-      <c r="M40" s="23">
+      <c r="M40" s="20">
         <v>9038279.7599999998</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="23">
-        <v>0</v>
-      </c>
-      <c r="C41" s="23">
-        <v>0</v>
-      </c>
-      <c r="D41" s="23">
-        <v>0</v>
-      </c>
-      <c r="E41" s="23">
-        <v>0</v>
-      </c>
-      <c r="F41" s="23">
-        <v>0</v>
-      </c>
-      <c r="G41" s="23">
+      <c r="B41" s="15">
+        <v>0</v>
+      </c>
+      <c r="C41" s="15">
+        <v>0</v>
+      </c>
+      <c r="D41" s="15">
+        <v>0</v>
+      </c>
+      <c r="E41" s="15">
+        <v>0</v>
+      </c>
+      <c r="F41" s="15">
+        <v>0</v>
+      </c>
+      <c r="G41" s="15">
         <v>20889.509999999998</v>
       </c>
-      <c r="H41" s="23">
-        <v>0</v>
-      </c>
-      <c r="I41" s="23">
-        <v>0</v>
-      </c>
-      <c r="J41" s="23">
-        <v>0</v>
-      </c>
-      <c r="K41" s="23">
-        <v>0</v>
-      </c>
-      <c r="L41" s="23">
-        <v>0</v>
-      </c>
-      <c r="M41" s="23">
+      <c r="H41" s="15">
+        <v>0</v>
+      </c>
+      <c r="I41" s="15">
+        <v>0</v>
+      </c>
+      <c r="J41" s="15">
+        <v>0</v>
+      </c>
+      <c r="K41" s="15">
+        <v>0</v>
+      </c>
+      <c r="L41" s="15">
+        <v>0</v>
+      </c>
+      <c r="M41" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="23">
+      <c r="B42" s="15">
         <v>924407.03</v>
       </c>
-      <c r="C42" s="23">
+      <c r="C42" s="15">
         <v>4416837.49</v>
       </c>
-      <c r="D42" s="23">
+      <c r="D42" s="15">
         <v>4902286.92</v>
       </c>
-      <c r="E42" s="23">
+      <c r="E42" s="15">
         <v>9022043.2599999998</v>
       </c>
-      <c r="F42" s="23">
+      <c r="F42" s="15">
         <v>1902241.1099999999</v>
       </c>
-      <c r="G42" s="23">
+      <c r="G42" s="15">
         <v>10890331.370000001</v>
       </c>
-      <c r="H42" s="23">
+      <c r="H42" s="15">
         <v>10838098.729999999</v>
       </c>
-      <c r="I42" s="23">
+      <c r="I42" s="15">
         <v>6499581.7200000007</v>
       </c>
-      <c r="J42" s="23">
+      <c r="J42" s="15">
         <v>12973152.41</v>
       </c>
-      <c r="K42" s="23">
+      <c r="K42" s="15">
         <v>5359520</v>
       </c>
-      <c r="L42" s="23">
+      <c r="L42" s="15">
         <v>6348035.8200000003</v>
       </c>
-      <c r="M42" s="23">
+      <c r="M42" s="20">
         <v>6656860.3499999996</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="23">
+      <c r="B43" s="15">
         <v>13491418.970000001</v>
       </c>
-      <c r="C43" s="23">
+      <c r="C43" s="15">
         <v>11724630.290000001</v>
       </c>
-      <c r="D43" s="23">
+      <c r="D43" s="15">
         <v>14343021.120000001</v>
       </c>
-      <c r="E43" s="23">
+      <c r="E43" s="15">
         <v>10573679.640000001</v>
       </c>
-      <c r="F43" s="23">
+      <c r="F43" s="15">
         <v>12232817.899999999</v>
       </c>
-      <c r="G43" s="23">
+      <c r="G43" s="15">
         <v>12269798.35</v>
       </c>
-      <c r="H43" s="23">
+      <c r="H43" s="15">
         <v>13528992.689999999</v>
       </c>
-      <c r="I43" s="23">
+      <c r="I43" s="15">
         <v>13133144.85</v>
       </c>
-      <c r="J43" s="23">
+      <c r="J43" s="15">
         <v>12271225.9</v>
       </c>
-      <c r="K43" s="23">
+      <c r="K43" s="15">
         <v>17552356.789999999</v>
       </c>
-      <c r="L43" s="23">
+      <c r="L43" s="15">
         <v>16729676.52</v>
       </c>
-      <c r="M43" s="23">
+      <c r="M43" s="20">
         <v>13041154.550000001</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="23">
+      <c r="B44" s="15">
         <v>127130179.49999997</v>
       </c>
-      <c r="C44" s="23">
+      <c r="C44" s="15">
         <v>135557031.97999999</v>
       </c>
-      <c r="D44" s="23">
+      <c r="D44" s="15">
         <v>198526397.97000006</v>
       </c>
-      <c r="E44" s="23">
+      <c r="E44" s="15">
         <v>121348011.07000002</v>
       </c>
-      <c r="F44" s="23">
+      <c r="F44" s="15">
         <v>182805925.63000003</v>
       </c>
-      <c r="G44" s="23">
+      <c r="G44" s="15">
         <v>135567514.26000002</v>
       </c>
-      <c r="H44" s="23">
+      <c r="H44" s="15">
         <v>175175473.70000002</v>
       </c>
-      <c r="I44" s="23">
+      <c r="I44" s="15">
         <v>140969281.29000002</v>
       </c>
-      <c r="J44" s="23">
+      <c r="J44" s="15">
         <v>151170093.43000001</v>
       </c>
-      <c r="K44" s="23">
+      <c r="K44" s="15">
         <v>187329261.05000007</v>
       </c>
-      <c r="L44" s="23">
+      <c r="L44" s="15">
         <v>121703123.71000001</v>
       </c>
-      <c r="M44" s="23">
+      <c r="M44" s="20">
         <v>133042683.89000002</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="23">
+      <c r="B45" s="15">
         <v>32652025.210000005</v>
       </c>
-      <c r="C45" s="23">
+      <c r="C45" s="15">
         <v>36695821.630000003</v>
       </c>
-      <c r="D45" s="23">
+      <c r="D45" s="15">
         <v>17550067.510000002</v>
       </c>
-      <c r="E45" s="23">
+      <c r="E45" s="15">
         <v>19606564.780000001</v>
       </c>
-      <c r="F45" s="23">
+      <c r="F45" s="15">
         <v>12753424.51</v>
       </c>
-      <c r="G45" s="23">
+      <c r="G45" s="15">
         <v>36658468.410000011</v>
       </c>
-      <c r="H45" s="23">
+      <c r="H45" s="15">
         <v>40514722.699999996</v>
       </c>
-      <c r="I45" s="23">
+      <c r="I45" s="15">
         <v>77012370.99000001</v>
       </c>
-      <c r="J45" s="23">
+      <c r="J45" s="15">
         <v>70026545.930000007</v>
       </c>
-      <c r="K45" s="23">
+      <c r="K45" s="15">
         <v>54162731.619999997</v>
       </c>
-      <c r="L45" s="23">
+      <c r="L45" s="15">
         <v>20702114.240000002</v>
       </c>
-      <c r="M45" s="23">
+      <c r="M45" s="20">
         <v>20244413.43</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="23">
-        <v>0</v>
-      </c>
-      <c r="C46" s="23">
+      <c r="B46" s="15">
+        <v>0</v>
+      </c>
+      <c r="C46" s="15">
         <v>2000</v>
       </c>
-      <c r="D46" s="23">
-        <v>0</v>
-      </c>
-      <c r="E46" s="23">
+      <c r="D46" s="15">
+        <v>0</v>
+      </c>
+      <c r="E46" s="15">
         <v>83433.69</v>
       </c>
-      <c r="F46" s="23">
-        <v>0</v>
-      </c>
-      <c r="G46" s="23">
-        <v>0</v>
-      </c>
-      <c r="H46" s="23">
-        <v>0</v>
-      </c>
-      <c r="I46" s="23">
-        <v>0</v>
-      </c>
-      <c r="J46" s="23">
-        <v>0</v>
-      </c>
-      <c r="K46" s="23">
-        <v>0</v>
-      </c>
-      <c r="L46" s="23">
-        <v>0</v>
-      </c>
-      <c r="M46" s="23">
+      <c r="F46" s="15">
+        <v>0</v>
+      </c>
+      <c r="G46" s="15">
+        <v>0</v>
+      </c>
+      <c r="H46" s="15">
+        <v>0</v>
+      </c>
+      <c r="I46" s="15">
+        <v>0</v>
+      </c>
+      <c r="J46" s="15">
+        <v>0</v>
+      </c>
+      <c r="K46" s="15">
+        <v>0</v>
+      </c>
+      <c r="L46" s="15">
+        <v>0</v>
+      </c>
+      <c r="M46" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="23">
+      <c r="B47" s="15">
         <v>3963164.4000000004</v>
       </c>
-      <c r="C47" s="23">
+      <c r="C47" s="15">
         <v>3036811.9</v>
       </c>
-      <c r="D47" s="23">
+      <c r="D47" s="15">
         <v>4951422.0799999991</v>
       </c>
-      <c r="E47" s="23">
+      <c r="E47" s="15">
         <v>10060396.429999998</v>
       </c>
-      <c r="F47" s="23">
+      <c r="F47" s="15">
         <v>2746005.28</v>
       </c>
-      <c r="G47" s="23">
+      <c r="G47" s="15">
         <v>5889033.3799999999</v>
       </c>
-      <c r="H47" s="23">
+      <c r="H47" s="15">
         <v>3289698.26</v>
       </c>
-      <c r="I47" s="23">
+      <c r="I47" s="15">
         <v>3489780.47</v>
       </c>
-      <c r="J47" s="23">
+      <c r="J47" s="15">
         <v>5083277.6100000003</v>
       </c>
-      <c r="K47" s="23">
+      <c r="K47" s="15">
         <v>13080780.109999999</v>
       </c>
-      <c r="L47" s="23">
+      <c r="L47" s="15">
         <v>15289923.02</v>
       </c>
-      <c r="M47" s="23">
+      <c r="M47" s="20">
         <v>55169305.869999997</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="23">
+      <c r="B48" s="15">
         <v>352246319.59999996</v>
       </c>
-      <c r="C48" s="23">
+      <c r="C48" s="15">
         <v>389627716.94999999</v>
       </c>
-      <c r="D48" s="23">
+      <c r="D48" s="15">
         <v>320113005.49000007</v>
       </c>
-      <c r="E48" s="23">
+      <c r="E48" s="15">
         <v>462904965.67000002</v>
       </c>
-      <c r="F48" s="23">
+      <c r="F48" s="15">
         <v>454772029.39000005</v>
       </c>
-      <c r="G48" s="23">
+      <c r="G48" s="15">
         <v>566215522.75</v>
       </c>
-      <c r="H48" s="23">
+      <c r="H48" s="15">
         <v>458554400.52000004</v>
       </c>
-      <c r="I48" s="23">
+      <c r="I48" s="15">
         <v>391068318.42000002</v>
       </c>
-      <c r="J48" s="23">
+      <c r="J48" s="15">
         <v>434842148.13000005</v>
       </c>
-      <c r="K48" s="23">
+      <c r="K48" s="15">
         <v>510238432.02999991</v>
       </c>
-      <c r="L48" s="23">
+      <c r="L48" s="15">
         <v>337454928.37</v>
       </c>
-      <c r="M48" s="23">
+      <c r="M48" s="20">
         <v>232824987.30999997</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="23">
+      <c r="B49" s="15">
         <v>1579287255.4700005</v>
       </c>
-      <c r="C49" s="23">
+      <c r="C49" s="15">
         <v>1450115000.9000003</v>
       </c>
-      <c r="D49" s="23">
+      <c r="D49" s="15">
         <v>1812222042.3400002</v>
       </c>
-      <c r="E49" s="23">
+      <c r="E49" s="15">
         <v>1621442367.4400003</v>
       </c>
-      <c r="F49" s="23">
+      <c r="F49" s="15">
         <v>1919274129.5199993</v>
       </c>
-      <c r="G49" s="23">
+      <c r="G49" s="15">
         <v>1928520383.3200004</v>
       </c>
-      <c r="H49" s="23">
+      <c r="H49" s="15">
         <v>1982983697.2300005</v>
       </c>
-      <c r="I49" s="23">
+      <c r="I49" s="15">
         <v>2292979761.7200003</v>
       </c>
-      <c r="J49" s="23">
+      <c r="J49" s="15">
         <v>2029614775.4799993</v>
       </c>
-      <c r="K49" s="23">
+      <c r="K49" s="15">
         <v>2315807278.7200012</v>
       </c>
-      <c r="L49" s="23">
+      <c r="L49" s="15">
         <v>2395574818.4200006</v>
       </c>
-      <c r="M49" s="23">
+      <c r="M49" s="20">
         <v>2136254769.8599997</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="23">
-        <v>0</v>
-      </c>
-      <c r="C50" s="23">
-        <v>0</v>
-      </c>
-      <c r="D50" s="23">
-        <v>0</v>
-      </c>
-      <c r="E50" s="23">
-        <v>0</v>
-      </c>
-      <c r="F50" s="23">
-        <v>0</v>
-      </c>
-      <c r="G50" s="23">
-        <v>0</v>
-      </c>
-      <c r="H50" s="23">
-        <v>0</v>
-      </c>
-      <c r="I50" s="23">
-        <v>0</v>
-      </c>
-      <c r="J50" s="23">
+      <c r="B50" s="15">
+        <v>0</v>
+      </c>
+      <c r="C50" s="15">
+        <v>0</v>
+      </c>
+      <c r="D50" s="15">
+        <v>0</v>
+      </c>
+      <c r="E50" s="15">
+        <v>0</v>
+      </c>
+      <c r="F50" s="15">
+        <v>0</v>
+      </c>
+      <c r="G50" s="15">
+        <v>0</v>
+      </c>
+      <c r="H50" s="15">
+        <v>0</v>
+      </c>
+      <c r="I50" s="15">
+        <v>0</v>
+      </c>
+      <c r="J50" s="15">
         <v>78195.78</v>
       </c>
-      <c r="K50" s="23">
+      <c r="K50" s="15">
         <v>76942.53</v>
       </c>
-      <c r="L50" s="23">
-        <v>0</v>
-      </c>
-      <c r="M50" s="23">
+      <c r="L50" s="15">
+        <v>0</v>
+      </c>
+      <c r="M50" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="23">
-        <v>0</v>
-      </c>
-      <c r="C51" s="23">
+      <c r="B51" s="15">
+        <v>0</v>
+      </c>
+      <c r="C51" s="15">
         <v>39394.300000000003</v>
       </c>
-      <c r="D51" s="23">
-        <v>0</v>
-      </c>
-      <c r="E51" s="23">
-        <v>0</v>
-      </c>
-      <c r="F51" s="23">
+      <c r="D51" s="15">
+        <v>0</v>
+      </c>
+      <c r="E51" s="15">
+        <v>0</v>
+      </c>
+      <c r="F51" s="15">
         <v>20209.93</v>
       </c>
-      <c r="G51" s="23">
-        <v>0</v>
-      </c>
-      <c r="H51" s="23">
+      <c r="G51" s="15">
+        <v>0</v>
+      </c>
+      <c r="H51" s="15">
         <v>53307.29</v>
       </c>
-      <c r="I51" s="23">
-        <v>0</v>
-      </c>
-      <c r="J51" s="23">
-        <v>0</v>
-      </c>
-      <c r="K51" s="23">
+      <c r="I51" s="15">
+        <v>0</v>
+      </c>
+      <c r="J51" s="15">
+        <v>0</v>
+      </c>
+      <c r="K51" s="15">
         <v>24116.16</v>
       </c>
-      <c r="L51" s="23">
-        <v>0</v>
-      </c>
-      <c r="M51" s="23">
+      <c r="L51" s="15">
+        <v>0</v>
+      </c>
+      <c r="M51" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B52" s="23">
+      <c r="B52" s="15">
         <v>199478.72</v>
       </c>
-      <c r="C52" s="23">
+      <c r="C52" s="15">
         <v>117455.7</v>
       </c>
-      <c r="D52" s="23">
-        <v>0</v>
-      </c>
-      <c r="E52" s="23">
+      <c r="D52" s="15">
+        <v>0</v>
+      </c>
+      <c r="E52" s="15">
         <v>446080.52</v>
       </c>
-      <c r="F52" s="23">
-        <v>0</v>
-      </c>
-      <c r="G52" s="23">
-        <v>0</v>
-      </c>
-      <c r="H52" s="23">
-        <v>0</v>
-      </c>
-      <c r="I52" s="23">
-        <v>0</v>
-      </c>
-      <c r="J52" s="23">
-        <v>0</v>
-      </c>
-      <c r="K52" s="23">
-        <v>0</v>
-      </c>
-      <c r="L52" s="23">
-        <v>0</v>
-      </c>
-      <c r="M52" s="23">
+      <c r="F52" s="15">
+        <v>0</v>
+      </c>
+      <c r="G52" s="15">
+        <v>0</v>
+      </c>
+      <c r="H52" s="15">
+        <v>0</v>
+      </c>
+      <c r="I52" s="15">
+        <v>0</v>
+      </c>
+      <c r="J52" s="15">
+        <v>0</v>
+      </c>
+      <c r="K52" s="15">
+        <v>0</v>
+      </c>
+      <c r="L52" s="15">
+        <v>0</v>
+      </c>
+      <c r="M52" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A53" s="22" t="s">
+      <c r="A53" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B53" s="23">
+      <c r="B53" s="15">
         <v>107450490.56999998</v>
       </c>
-      <c r="C53" s="23">
+      <c r="C53" s="15">
         <v>125909199.54000001</v>
       </c>
-      <c r="D53" s="23">
+      <c r="D53" s="15">
         <v>175704825.57000005</v>
       </c>
-      <c r="E53" s="23">
+      <c r="E53" s="15">
         <v>135329207.81</v>
       </c>
-      <c r="F53" s="23">
+      <c r="F53" s="15">
         <v>180135744.41000006</v>
       </c>
-      <c r="G53" s="23">
+      <c r="G53" s="15">
         <v>153168646.21000001</v>
       </c>
-      <c r="H53" s="23">
+      <c r="H53" s="15">
         <v>117105774.08000001</v>
       </c>
-      <c r="I53" s="23">
+      <c r="I53" s="15">
         <v>124335889.37</v>
       </c>
-      <c r="J53" s="23">
+      <c r="J53" s="15">
         <v>110669740.87000003</v>
       </c>
-      <c r="K53" s="23">
+      <c r="K53" s="15">
         <v>153123685.86999992</v>
       </c>
-      <c r="L53" s="23">
+      <c r="L53" s="15">
         <v>138357112.5</v>
       </c>
-      <c r="M53" s="23">
+      <c r="M53" s="20">
         <v>149887301.82999998</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" s="22" t="s">
+      <c r="A54" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="23">
+      <c r="B54" s="15">
         <v>192757218.30000001</v>
       </c>
-      <c r="C54" s="23">
+      <c r="C54" s="15">
         <v>235752589.97999999</v>
       </c>
-      <c r="D54" s="23">
+      <c r="D54" s="15">
         <v>306749091.99000001</v>
       </c>
-      <c r="E54" s="23">
+      <c r="E54" s="15">
         <v>295514894.64999998</v>
       </c>
-      <c r="F54" s="23">
+      <c r="F54" s="15">
         <v>264842467.72000003</v>
       </c>
-      <c r="G54" s="23">
+      <c r="G54" s="15">
         <v>229366755.79999998</v>
       </c>
-      <c r="H54" s="23">
+      <c r="H54" s="15">
         <v>200054328.37000003</v>
       </c>
-      <c r="I54" s="23">
+      <c r="I54" s="15">
         <v>312742329.77999997</v>
       </c>
-      <c r="J54" s="23">
+      <c r="J54" s="15">
         <v>121458150.83000003</v>
       </c>
-      <c r="K54" s="23">
+      <c r="K54" s="15">
         <v>325699026.29000002</v>
       </c>
-      <c r="L54" s="23">
+      <c r="L54" s="15">
         <v>246219507.13</v>
       </c>
-      <c r="M54" s="23">
+      <c r="M54" s="20">
         <v>365540105.86999995</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A55" s="22" t="s">
+      <c r="A55" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B55" s="23">
+      <c r="B55" s="15">
         <v>6545441.5300000003</v>
       </c>
-      <c r="C55" s="23">
+      <c r="C55" s="15">
         <v>13979414.890000001</v>
       </c>
-      <c r="D55" s="23">
+      <c r="D55" s="15">
         <v>21594276.09</v>
       </c>
-      <c r="E55" s="23">
+      <c r="E55" s="15">
         <v>767474.37</v>
       </c>
-      <c r="F55" s="23">
+      <c r="F55" s="15">
         <v>6240939.6500000004</v>
       </c>
-      <c r="G55" s="23">
+      <c r="G55" s="15">
         <v>7425073.4900000002</v>
       </c>
-      <c r="H55" s="23">
+      <c r="H55" s="15">
         <v>15045993.1</v>
       </c>
-      <c r="I55" s="23">
+      <c r="I55" s="15">
         <v>7856488</v>
       </c>
-      <c r="J55" s="23">
+      <c r="J55" s="15">
         <v>6553290.3600000003</v>
       </c>
-      <c r="K55" s="23">
+      <c r="K55" s="15">
         <v>16460948.18</v>
       </c>
-      <c r="L55" s="23">
+      <c r="L55" s="15">
         <v>25900264.68</v>
       </c>
-      <c r="M55" s="23">
+      <c r="M55" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B56" s="23">
-        <v>0</v>
-      </c>
-      <c r="C56" s="23">
-        <v>0</v>
-      </c>
-      <c r="D56" s="23">
-        <v>0</v>
-      </c>
-      <c r="E56" s="23">
-        <v>0</v>
-      </c>
-      <c r="F56" s="23">
-        <v>0</v>
-      </c>
-      <c r="G56" s="23">
-        <v>0</v>
-      </c>
-      <c r="H56" s="23">
-        <v>0</v>
-      </c>
-      <c r="I56" s="23">
-        <v>0</v>
-      </c>
-      <c r="J56" s="23">
-        <v>0</v>
-      </c>
-      <c r="K56" s="23">
-        <v>0</v>
-      </c>
-      <c r="L56" s="23">
+      <c r="B56" s="15">
+        <v>0</v>
+      </c>
+      <c r="C56" s="15">
+        <v>0</v>
+      </c>
+      <c r="D56" s="15">
+        <v>0</v>
+      </c>
+      <c r="E56" s="15">
+        <v>0</v>
+      </c>
+      <c r="F56" s="15">
+        <v>0</v>
+      </c>
+      <c r="G56" s="15">
+        <v>0</v>
+      </c>
+      <c r="H56" s="15">
+        <v>0</v>
+      </c>
+      <c r="I56" s="15">
+        <v>0</v>
+      </c>
+      <c r="J56" s="15">
+        <v>0</v>
+      </c>
+      <c r="K56" s="15">
+        <v>0</v>
+      </c>
+      <c r="L56" s="15">
         <v>71721.5</v>
       </c>
-      <c r="M56" s="23">
+      <c r="M56" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A57" s="22" t="s">
+      <c r="A57" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="23">
+      <c r="B57" s="15">
         <v>71462.06</v>
       </c>
-      <c r="C57" s="23">
-        <v>0</v>
-      </c>
-      <c r="D57" s="23">
-        <v>0</v>
-      </c>
-      <c r="E57" s="23">
-        <v>0</v>
-      </c>
-      <c r="F57" s="23">
-        <v>0</v>
-      </c>
-      <c r="G57" s="23">
-        <v>0</v>
-      </c>
-      <c r="H57" s="23">
-        <v>0</v>
-      </c>
-      <c r="I57" s="23">
-        <v>0</v>
-      </c>
-      <c r="J57" s="23">
-        <v>0</v>
-      </c>
-      <c r="K57" s="23">
-        <v>0</v>
-      </c>
-      <c r="L57" s="23">
-        <v>0</v>
-      </c>
-      <c r="M57" s="23">
+      <c r="C57" s="15">
+        <v>0</v>
+      </c>
+      <c r="D57" s="15">
+        <v>0</v>
+      </c>
+      <c r="E57" s="15">
+        <v>0</v>
+      </c>
+      <c r="F57" s="15">
+        <v>0</v>
+      </c>
+      <c r="G57" s="15">
+        <v>0</v>
+      </c>
+      <c r="H57" s="15">
+        <v>0</v>
+      </c>
+      <c r="I57" s="15">
+        <v>0</v>
+      </c>
+      <c r="J57" s="15">
+        <v>0</v>
+      </c>
+      <c r="K57" s="15">
+        <v>0</v>
+      </c>
+      <c r="L57" s="15">
+        <v>0</v>
+      </c>
+      <c r="M57" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B58" s="23">
+      <c r="B58" s="15">
         <v>1296479021.3500009</v>
       </c>
-      <c r="C58" s="23">
+      <c r="C58" s="15">
         <v>1148447456.7999997</v>
       </c>
-      <c r="D58" s="23">
+      <c r="D58" s="15">
         <v>1221042878.7599995</v>
       </c>
-      <c r="E58" s="23">
+      <c r="E58" s="15">
         <v>991454783.47000003</v>
       </c>
-      <c r="F58" s="23">
+      <c r="F58" s="15">
         <v>1085846861.6800003</v>
       </c>
-      <c r="G58" s="23">
+      <c r="G58" s="15">
         <v>1122066534.1200001</v>
       </c>
-      <c r="H58" s="23">
+      <c r="H58" s="15">
         <v>995671651.08999991</v>
       </c>
-      <c r="I58" s="23">
+      <c r="I58" s="15">
         <v>1237956376.52</v>
       </c>
-      <c r="J58" s="23">
+      <c r="J58" s="15">
         <v>1003681733.8100002</v>
       </c>
-      <c r="K58" s="23">
+      <c r="K58" s="15">
         <v>1190859913.7600002</v>
       </c>
-      <c r="L58" s="23">
+      <c r="L58" s="15">
         <v>335564638.5999999</v>
       </c>
-      <c r="M58" s="23">
+      <c r="M58" s="20">
         <v>855366431.13999999</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A59" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" s="23">
+      <c r="A59" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="15">
         <v>19653437.359999999</v>
       </c>
-      <c r="C59" s="23">
+      <c r="C59" s="15">
         <v>22732290.98</v>
       </c>
-      <c r="D59" s="23">
+      <c r="D59" s="15">
         <v>34521140.900000006</v>
       </c>
-      <c r="E59" s="23">
+      <c r="E59" s="15">
         <v>16964934.949999999</v>
       </c>
-      <c r="F59" s="23">
+      <c r="F59" s="15">
         <v>38292477.43</v>
       </c>
-      <c r="G59" s="23">
+      <c r="G59" s="15">
         <v>33603162.359999999</v>
       </c>
-      <c r="H59" s="23">
+      <c r="H59" s="15">
         <v>31534637.84</v>
       </c>
-      <c r="I59" s="23">
+      <c r="I59" s="15">
         <v>28709493.120000001</v>
       </c>
-      <c r="J59" s="23">
+      <c r="J59" s="15">
         <v>21944799.460000001</v>
       </c>
-      <c r="K59" s="23">
+      <c r="K59" s="15">
         <v>44150502.270000003</v>
       </c>
-      <c r="L59" s="23">
+      <c r="L59" s="15">
         <v>39065864.819999993</v>
       </c>
-      <c r="M59" s="23">
+      <c r="M59" s="20">
         <v>22846561.870000001</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A60" s="22" t="s">
+      <c r="A60" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B60" s="23">
+      <c r="B60" s="26">
         <v>374773766.17999995</v>
       </c>
-      <c r="C60" s="23">
+      <c r="C60" s="26">
         <v>324848098.75000012</v>
       </c>
-      <c r="D60" s="23">
+      <c r="D60" s="26">
         <v>405985223.92000008</v>
       </c>
-      <c r="E60" s="23">
+      <c r="E60" s="26">
         <v>411065014.41000021</v>
       </c>
-      <c r="F60" s="23">
+      <c r="F60" s="26">
         <v>384768217.36000013</v>
       </c>
-      <c r="G60" s="23">
+      <c r="G60" s="26">
         <v>361006385.65999979</v>
       </c>
-      <c r="H60" s="23">
+      <c r="H60" s="26">
         <v>410884280.66000015</v>
       </c>
-      <c r="I60" s="23">
+      <c r="I60" s="26">
         <v>466431605.92000008</v>
       </c>
-      <c r="J60" s="23">
+      <c r="J60" s="26">
         <v>378327303.95000017</v>
       </c>
-      <c r="K60" s="23">
+      <c r="K60" s="26">
         <v>455219119.15000004</v>
       </c>
-      <c r="L60" s="23">
+      <c r="L60" s="26">
         <v>437221924.87999976</v>
       </c>
-      <c r="M60" s="23">
+      <c r="M60" s="27">
         <v>431828317.98999995</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>